--- a/Tubi.xlsx
+++ b/Tubi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Std</t>
   </si>
@@ -63,14 +63,18 @@
   <si>
     <t>D_ext</t>
   </si>
+  <si>
+    <t>sch.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -153,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -166,6 +170,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -474,7 +481,7 @@
     <col min="2" max="2" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -494,37 +501,40 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>0.25</v>
       </c>
@@ -553,17 +563,17 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>2.2299999999999998E-3</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
       <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
       <c r="N2" s="5">
         <v>0</v>
       </c>
@@ -573,8 +583,11 @@
       <c r="P2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>0.375</v>
       </c>
@@ -603,17 +616,17 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <v>2.31E-3</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
       <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
       <c r="N3" s="5">
         <v>0</v>
       </c>
@@ -623,8 +636,11 @@
       <c r="P3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>0.5</v>
       </c>
@@ -653,17 +669,17 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>2.7699999999999999E-3</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
       <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
         <v>3.7299999999999998E-3</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
       <c r="N4" s="5">
         <v>0</v>
       </c>
@@ -671,10 +687,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>0.75</v>
       </c>
@@ -703,17 +722,17 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
       <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
         <v>3.9100000000000003E-3</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
       <c r="N5" s="5">
         <v>0</v>
       </c>
@@ -721,10 +740,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>5.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -753,17 +775,17 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>3.3799999999999998E-3</v>
       </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
       <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>4.5500000000000002E-3</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
@@ -771,10 +793,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>1.25</v>
       </c>
@@ -803,17 +828,17 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>3.5600000000000002E-3</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
       <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>4.8499999999999993E-3</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
       <c r="N7" s="5">
         <v>0</v>
       </c>
@@ -821,10 +846,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>1.5</v>
       </c>
@@ -853,17 +881,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
       <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
       <c r="N8" s="5">
         <v>0</v>
       </c>
@@ -871,10 +899,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>7.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -903,17 +934,17 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>3.9100000000000003E-3</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
       <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
         <v>5.5399999999999998E-3</v>
       </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
       <c r="N9" s="5">
         <v>0</v>
       </c>
@@ -921,10 +952,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>8.7100000000000007E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>2.5</v>
       </c>
@@ -953,17 +987,17 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <v>5.1600000000000005E-3</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
       <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
         <v>7.0099999999999997E-3</v>
       </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
       <c r="N10" s="5">
         <v>0</v>
       </c>
@@ -971,10 +1005,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>9.5199999999999989E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -1003,17 +1040,17 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>5.4900000000000001E-3</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
       <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <v>7.62E-3</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
@@ -1021,10 +1058,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>1.112E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>3.5</v>
       </c>
@@ -1053,17 +1093,17 @@
         <v>0</v>
       </c>
       <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>5.7400000000000003E-3</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
       <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
         <v>8.0700000000000008E-3</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
       <c r="N12" s="5">
         <v>0</v>
       </c>
@@ -1073,8 +1113,11 @@
       <c r="P12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1103,28 +1146,31 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>6.0199999999999993E-3</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
       <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
         <v>8.5599999999999999E-3</v>
       </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
       <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
         <v>1.112E-2</v>
       </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
       <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>1.349E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1153,28 +1199,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>6.5499999999999994E-3</v>
       </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
       <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
         <v>9.5199999999999989E-3</v>
       </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
       <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
       <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1193,38 +1242,47 @@
       <c r="F15" s="5">
         <v>2.1940000000000001E-2</v>
       </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
+      <c r="G15" s="6">
+        <f>0.109*S15</f>
+        <v>2.7686E-3</v>
+      </c>
+      <c r="H15" s="6">
+        <f>0.134*S15</f>
+        <v>3.4036000000000001E-3</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>7.11E-3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>0</v>
+        <f>0.28*S15</f>
+        <v>7.1120000000000003E-3</v>
       </c>
       <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
         <v>1.0970000000000001E-2</v>
       </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
       <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
         <v>1.427E-2</v>
       </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
       <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>1.8239999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="S15">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -1247,34 +1305,37 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>8.1799999999999998E-3</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>1.031E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>1.506E-2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>1.8239999999999999E-2</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>2.3010000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -1297,34 +1358,37 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>9.2699999999999987E-3</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>1.506E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>1.8239999999999999E-2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>2.1409999999999998E-2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>2.8570000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -1347,34 +1411,37 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>8.3800000000000003E-3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>1.031E-2</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>1.427E-2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>1.745E-2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>2.1409999999999998E-2</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>2.8570000000000002E-2</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>3.3320000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1394,37 +1461,40 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>7.92E-3</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>9.5199999999999989E-3</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>1.112E-2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>1.506E-2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>1.9050000000000001E-2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>2.776E-2</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>3.175E-2</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>3.5709999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1444,37 +1514,40 @@
         <v>0</v>
       </c>
       <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>7.92E-3</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>9.5199999999999989E-3</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>1.6660000000000001E-2</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>2.1409999999999998E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>3.0940000000000002E-2</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>3.6520000000000004E-2</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>4.0460000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1494,37 +1567,40 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>7.92E-3</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>1.112E-2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>1.427E-2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>1.9050000000000001E-2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>2.9360000000000001E-2</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="5">
         <v>3.492E-2</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>3.9670000000000004E-2</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>4.5240000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1544,37 +1620,40 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>9.5199999999999989E-3</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>1.506E-2</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>3.2539999999999999E-2</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>4.4450000000000003E-2</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>4.999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="3">
         <v>24</v>
       </c>
@@ -1594,33 +1673,36 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>9.5199999999999989E-3</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>1.427E-2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>1.745E-2</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>2.4590000000000001E-2</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>3.0940000000000002E-2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>3.8890000000000001E-2</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>4.6020000000000005E-2</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>5.237E-2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>5.951E-2</v>
       </c>
     </row>
